--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" state="visible" r:id="rId2"/>
@@ -1270,12 +1270,12 @@
   </sheetPr>
   <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6546,12 +6546,12 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" state="visible" r:id="rId2"/>
@@ -115,16 +115,16 @@
     <t xml:space="preserve">tax_class_id</t>
   </si>
   <si>
-    <t xml:space="preserve">description(ru-ru)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta_title(ru-ru)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta_description(ru-ru)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta_keywords(ru-ru)</t>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meta_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meta_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meta_keywords</t>
   </si>
   <si>
     <t xml:space="preserve">stock_status_id</t>
@@ -877,7 +877,7 @@
     <t xml:space="preserve">attribute_id</t>
   </si>
   <si>
-    <t xml:space="preserve">text(ru-ru)</t>
+    <t xml:space="preserve">text</t>
   </si>
   <si>
     <t xml:space="preserve">64x21x22</t>
@@ -1270,12 +1270,12 @@
   </sheetPr>
   <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="AF2" activeCellId="0" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6546,7 +6546,7 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -7072,7 +7072,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D770" activeCellId="0" sqref="D770"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
